--- a/Simulations/Results/docking_60s_act/docking_60s_act.xlsx
+++ b/Simulations/Results/docking_60s_act/docking_60s_act.xlsx
@@ -13,7 +13,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m/s)</t>
+  </si>
+  <si>
+    <t>omega_ef (rad/s)</t>
+  </si>
+  <si>
+    <t>angle_e (deg)</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -185,40 +221,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
